--- a/main/static/records/Grade4.xlsx
+++ b/main/static/records/Grade4.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+  <si>
+    <t xml:space="preserve">RFID No.</t>
+  </si>
   <si>
     <t xml:space="preserve">LAST NAME</t>
   </si>
@@ -46,6 +49,9 @@
     <t xml:space="preserve">STUDENT ID NUMBER</t>
   </si>
   <si>
+    <t xml:space="preserve">0006601959</t>
+  </si>
+  <si>
     <t xml:space="preserve">Manalo</t>
   </si>
   <si>
@@ -61,7 +67,7 @@
     <t xml:space="preserve">Lailane Manalo</t>
   </si>
   <si>
-    <t xml:space="preserve">09304879158</t>
+    <t xml:space="preserve">09304879158 / 09485730928</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>
@@ -70,6 +76,9 @@
     <t xml:space="preserve">18-0039</t>
   </si>
   <si>
+    <t xml:space="preserve">0006603456</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molino</t>
   </si>
   <si>
@@ -91,7 +100,10 @@
     <t xml:space="preserve">18-0040</t>
   </si>
   <si>
-    <t xml:space="preserve">Montañez</t>
+    <t xml:space="preserve">0006588857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montañes</t>
   </si>
   <si>
     <t xml:space="preserve">Sofia Ysabelle</t>
@@ -110,6 +122,9 @@
   </si>
   <si>
     <t xml:space="preserve">18-0041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0006595882</t>
   </si>
   <si>
     <t xml:space="preserve">Sola</t>
@@ -141,7 +156,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -162,6 +177,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -213,20 +235,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -247,153 +277,170 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:I5"/>
+  <dimension ref="1:5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:A"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="60.3418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="60.3418367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="2" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="1023" min="10" style="2" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="10.6632653061225"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+    <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>22</v>
+      <c r="I3" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/main/static/records/Grade4.xlsx
+++ b/main/static/records/Grade4.xlsx
@@ -67,7 +67,7 @@
     <t xml:space="preserve">Lailane Manalo</t>
   </si>
   <si>
-    <t xml:space="preserve">09304879158 / 09485730928</t>
+    <t xml:space="preserve">09304879158</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>
@@ -280,21 +280,21 @@
   <dimension ref="1:5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="60.3418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="2" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="1023" min="10" style="2" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="59.530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="2" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="1023" min="10" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/main/static/records/Grade4.xlsx
+++ b/main/static/records/Grade4.xlsx
@@ -280,21 +280,21 @@
   <dimension ref="1:5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="59.530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="2" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="1023" min="10" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="58.8571428571429"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="2" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="1023" min="10" style="2" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
